--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1411655.41550977</v>
+        <v>-1414211.73133702</v>
       </c>
     </row>
     <row r="7">
@@ -662,16 +662,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>244.8002039702761</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>353.4737088451252</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>109.6818210815091</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>24.89693136788229</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>161.8790720844515</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>101.8907566840627</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>179.2878377189758</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>108.7175251574347</v>
+        <v>42.58098460205474</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>142.4033150297701</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>130.4962599603919</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>57.53728081115984</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>97.99922286953598</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206822</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V13" t="n">
-        <v>241.2831928543109</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>112.0357928422986</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>211.147499124903</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>34.2105855891487</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,10 +2059,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>166.3651772885442</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634823</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>16.09765778288691</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>155.0500112286387</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>105.8460632289454</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545305</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808158</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,7 +3670,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002292</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1517.887535471215</v>
+        <v>1795.666214589422</v>
       </c>
       <c r="C2" t="n">
-        <v>1148.925018530803</v>
+        <v>1426.703697649011</v>
       </c>
       <c r="D2" t="n">
-        <v>1148.925018530803</v>
+        <v>1068.43799904226</v>
       </c>
       <c r="E2" t="n">
-        <v>763.1367659325588</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F2" t="n">
-        <v>763.1367659325588</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,7 +4325,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
@@ -4334,10 +4334,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4346,34 +4346,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796416</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535336</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y2" t="n">
-        <v>1904.487375535336</v>
+        <v>2182.266054653544</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080131</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>472.1048757766374</v>
+        <v>536.5802124479361</v>
       </c>
       <c r="C4" t="n">
-        <v>472.1048757766374</v>
+        <v>536.5802124479361</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>386.4635730356003</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>238.5504794532072</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>91.66053195529685</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>91.66053195529685</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>91.66053195529685</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4519,19 +4519,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>757.3727915914662</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>757.3727915914662</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>757.3727915914662</v>
       </c>
       <c r="X4" t="n">
-        <v>692.8974549201675</v>
+        <v>757.3727915914662</v>
       </c>
       <c r="Y4" t="n">
-        <v>472.1048757766374</v>
+        <v>536.5802124479361</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1572.164517693149</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>995.4904276233224</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>584.5045228337149</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>169.4320726787113</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.097597267229</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2513.328941997114</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2139.863183736034</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1958.764357757271</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="6">
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>471.1308394896936</v>
+        <v>206.8488891714691</v>
       </c>
       <c r="C7" t="n">
-        <v>471.1308394896936</v>
+        <v>206.8488891714691</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>163.837793613838</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4747,28 +4747,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877109</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U7" t="n">
-        <v>699.1203903877109</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V7" t="n">
-        <v>699.1203903877109</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W7" t="n">
-        <v>699.1203903877109</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="X7" t="n">
-        <v>471.1308394896936</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="Y7" t="n">
-        <v>471.1308394896936</v>
+        <v>388.4973540017088</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1917.382287315189</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="C8" t="n">
-        <v>1548.419770374778</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
         <v>66.5121164321834</v>
@@ -4802,16 +4802,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4835,19 +4835,19 @@
         <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>2987.813669992996</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2656.750782649426</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2303.982127379311</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2303.982127379311</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y8" t="n">
-        <v>2303.982127379311</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="9">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.564938772426</v>
+        <v>439.7839516080506</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445191</v>
+        <v>270.8477686801436</v>
       </c>
       <c r="D10" t="n">
-        <v>66.5121164321834</v>
+        <v>270.8477686801436</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>270.8477686801436</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>270.8477686801436</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
         <v>66.5121164321834</v>
@@ -4987,25 +4987,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U10" t="n">
-        <v>821.8978918085526</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V10" t="n">
-        <v>567.2134036026657</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="W10" t="n">
-        <v>567.2134036026657</v>
+        <v>439.7839516080506</v>
       </c>
       <c r="X10" t="n">
-        <v>567.2134036026657</v>
+        <v>439.7839516080506</v>
       </c>
       <c r="Y10" t="n">
-        <v>567.2134036026657</v>
+        <v>439.7839516080506</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5021,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5042,22 +5042,22 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5130,16 +5130,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5273,19 +5273,19 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517213</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>467.7318369701959</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578601</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572603</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>377.6556127449245</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>377.6556127449245</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>377.6556127449245</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>210.4595134598044</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5729,46 +5729,46 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2363.657119445908</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2144.05565446885</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1854.980427813048</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1600.295939607161</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1310.8787695702</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1082.889218672183</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,22 +6005,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>634.9279362553159</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X25" t="n">
-        <v>1037.368980229086</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y25" t="n">
-        <v>816.5764010855556</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6361,16 +6361,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,37 +6382,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
         <v>1746.193029533436</v>
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,22 +6479,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6692,13 +6692,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6716,22 +6716,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.195150674524</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7099,7 +7099,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7111,25 +7111,25 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.195150674524</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,31 +7345,31 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.33868158239</v>
@@ -7403,25 +7403,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656819</v>
@@ -7558,13 +7558,13 @@
         <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,10 +7582,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717216</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>137.1301661019857</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>57.44801680832825</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22708,7 +22708,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>38.9336519367033</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>71.4554890419558</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>38.68254321810669</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.955857780762017e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V13" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>55.2110282563292</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012916</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>75.03697526434112</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>106.0841272570752</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>120.1578210480468</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>164.9286282187577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>119.8635921600918</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>133.8601746357976</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1049363.273544797</v>
+        <v>1049363.273544796</v>
       </c>
     </row>
     <row r="3">
@@ -26317,13 +26317,13 @@
         <v>164208.3539728567</v>
       </c>
       <c r="D2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="E2" t="n">
+        <v>161429.3199380013</v>
+      </c>
+      <c r="F2" t="n">
         <v>161429.3199380012</v>
-      </c>
-      <c r="F2" t="n">
-        <v>161429.3199380013</v>
       </c>
       <c r="G2" t="n">
         <v>161429.3199380013</v>
@@ -26332,28 +26332,28 @@
         <v>161429.3199380012</v>
       </c>
       <c r="I2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="J2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380011</v>
       </c>
       <c r="K2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
     </row>
     <row r="3">
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363172</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11387.33216691521</v>
+        <v>11387.33216691502</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405257</v>
@@ -26424,19 +26424,19 @@
         <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687956</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687956</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687965</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687958</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
@@ -26445,19 +26445,19 @@
         <v>15436.64000687965</v>
       </c>
       <c r="L4" t="n">
-        <v>23427.49926997309</v>
+        <v>23427.49926997315</v>
       </c>
       <c r="M4" t="n">
-        <v>23427.49926997311</v>
+        <v>23427.49926997315</v>
       </c>
       <c r="N4" t="n">
-        <v>23427.49926997312</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="O4" t="n">
-        <v>23427.49926997311</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="P4" t="n">
-        <v>23427.49926997312</v>
+        <v>23427.49926997313</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1312664.305740444</v>
+        <v>-1313024.388756161</v>
       </c>
       <c r="C6" t="n">
-        <v>-37322.3306925892</v>
+        <v>-37322.33069258917</v>
       </c>
       <c r="D6" t="n">
-        <v>-37322.33069258917</v>
+        <v>-37322.33069258922</v>
       </c>
       <c r="E6" t="n">
-        <v>-280542.3117001407</v>
+        <v>-280577.0496255764</v>
       </c>
       <c r="F6" t="n">
-        <v>44870.15010721459</v>
+        <v>44835.41218177872</v>
       </c>
       <c r="G6" t="n">
-        <v>44870.15010721446</v>
+        <v>44835.41218177875</v>
       </c>
       <c r="H6" t="n">
-        <v>44870.15010721452</v>
+        <v>44835.41218177875</v>
       </c>
       <c r="I6" t="n">
-        <v>44870.15010721449</v>
+        <v>44835.41218177865</v>
       </c>
       <c r="J6" t="n">
-        <v>-172661.0522900629</v>
+        <v>-172695.7902154988</v>
       </c>
       <c r="K6" t="n">
-        <v>44870.15010721446</v>
+        <v>44835.41218177871</v>
       </c>
       <c r="L6" t="n">
-        <v>18189.02085533658</v>
+        <v>18189.02085533641</v>
       </c>
       <c r="M6" t="n">
-        <v>-47438.28908654352</v>
+        <v>-47438.28908654377</v>
       </c>
       <c r="N6" t="n">
-        <v>37616.73884896823</v>
+        <v>37616.73884896821</v>
       </c>
       <c r="O6" t="n">
-        <v>37616.73884896832</v>
+        <v>37616.73884896821</v>
       </c>
       <c r="P6" t="n">
-        <v>37616.73884896828</v>
+        <v>37616.73884896821</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
@@ -26802,22 +26802,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>50.24960945194064</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>124.3327661211614</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>192.7170077032578</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>206.9501009370778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>39.89794786077769</v>
+        <v>106.0344884161576</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>212.2797265909129</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>120.4989119985101</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>108.4885274478684</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,19 +28059,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>188.2126153360769</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.514916789046314e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.736439038534721e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31610,10 +31610,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31850,7 +31850,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717714</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511227</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>225.4828684302374</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817571</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159423</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817556</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35498,7 +35498,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>191.358233988438</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>197.8432633066783</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>82.88662398579301</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111712</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315125</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402473</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,16 +37941,16 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
